--- a/arrobas.xlsx
+++ b/arrobas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\PycharmProjects\AutomateInstagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\PycharmProjects\AutomateInstagram\AutomatinoIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334A22A-00CD-4A05-8068-5A94E6A75FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41F112F-CB88-46A3-99E9-0876DF66CDD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12884,10 +12884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4309"/>
+  <dimension ref="A1:C4169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4159" workbookViewId="0">
+      <selection activeCell="A4170" sqref="A4170:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33766,426 +33766,9 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="4171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4171"/>
-    </row>
-    <row r="4172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4172"/>
-    </row>
-    <row r="4173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4173"/>
-    </row>
-    <row r="4174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4174"/>
-    </row>
-    <row r="4175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4175"/>
-    </row>
-    <row r="4176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4176"/>
-    </row>
-    <row r="4177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4177"/>
-    </row>
-    <row r="4178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4178"/>
-    </row>
-    <row r="4179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4179"/>
-    </row>
-    <row r="4180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4180"/>
-    </row>
-    <row r="4181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4181"/>
-    </row>
-    <row r="4182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4182"/>
-    </row>
-    <row r="4183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4183"/>
-    </row>
-    <row r="4184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4184"/>
-    </row>
-    <row r="4185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4185"/>
-    </row>
-    <row r="4186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4186"/>
-    </row>
-    <row r="4187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4187"/>
-    </row>
-    <row r="4188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4188"/>
-    </row>
-    <row r="4189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4189"/>
-    </row>
-    <row r="4190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4190"/>
-    </row>
-    <row r="4191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4191"/>
-    </row>
-    <row r="4192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4192"/>
-    </row>
-    <row r="4193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4193"/>
-    </row>
-    <row r="4194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4194"/>
-    </row>
-    <row r="4195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4195"/>
-    </row>
-    <row r="4196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4196"/>
-    </row>
-    <row r="4197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4197"/>
-    </row>
-    <row r="4198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4198"/>
-    </row>
-    <row r="4199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4199"/>
-    </row>
-    <row r="4200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4200"/>
-    </row>
-    <row r="4201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4201"/>
-    </row>
-    <row r="4202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4202"/>
-    </row>
-    <row r="4203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4203"/>
-    </row>
-    <row r="4204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4204"/>
-    </row>
-    <row r="4205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4205"/>
-    </row>
-    <row r="4206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4206"/>
-    </row>
-    <row r="4207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4207"/>
-    </row>
-    <row r="4208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4208"/>
-    </row>
-    <row r="4209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4209"/>
-    </row>
-    <row r="4210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4210"/>
-    </row>
-    <row r="4211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4211"/>
-    </row>
-    <row r="4212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4212"/>
-    </row>
-    <row r="4213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4213"/>
-    </row>
-    <row r="4214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4214"/>
-    </row>
-    <row r="4215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4215"/>
-    </row>
-    <row r="4216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4216"/>
-    </row>
-    <row r="4217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4217"/>
-    </row>
-    <row r="4218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4218"/>
-    </row>
-    <row r="4219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4219"/>
-    </row>
-    <row r="4220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4220"/>
-    </row>
-    <row r="4221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4221"/>
-    </row>
-    <row r="4222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4222"/>
-    </row>
-    <row r="4223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4223"/>
-    </row>
-    <row r="4224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4224"/>
-    </row>
-    <row r="4225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4225"/>
-    </row>
-    <row r="4226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4226"/>
-    </row>
-    <row r="4227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4227"/>
-    </row>
-    <row r="4228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4228"/>
-    </row>
-    <row r="4229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4229"/>
-    </row>
-    <row r="4230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4230"/>
-    </row>
-    <row r="4231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4231"/>
-    </row>
-    <row r="4232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4232"/>
-    </row>
-    <row r="4233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4233"/>
-    </row>
-    <row r="4234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4234"/>
-    </row>
-    <row r="4235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4235"/>
-    </row>
-    <row r="4236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4236"/>
-    </row>
-    <row r="4237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4237"/>
-    </row>
-    <row r="4238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4238"/>
-    </row>
-    <row r="4239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4239"/>
-    </row>
-    <row r="4240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4240"/>
-    </row>
-    <row r="4241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4241"/>
-    </row>
-    <row r="4242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4242"/>
-    </row>
-    <row r="4243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4243"/>
-    </row>
-    <row r="4244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4244"/>
-    </row>
-    <row r="4245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4245"/>
-    </row>
-    <row r="4246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4246"/>
-    </row>
-    <row r="4247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4247"/>
-    </row>
-    <row r="4248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4248"/>
-    </row>
-    <row r="4249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4249"/>
-    </row>
-    <row r="4250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4250"/>
-    </row>
-    <row r="4251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4251"/>
-    </row>
-    <row r="4252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4252"/>
-    </row>
-    <row r="4253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4253"/>
-    </row>
-    <row r="4254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4254"/>
-    </row>
-    <row r="4255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4255"/>
-    </row>
-    <row r="4256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4256"/>
-    </row>
-    <row r="4257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4257"/>
-    </row>
-    <row r="4258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4258"/>
-    </row>
-    <row r="4259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4259"/>
-    </row>
-    <row r="4260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4260"/>
-    </row>
-    <row r="4261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4261"/>
-    </row>
-    <row r="4262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4262"/>
-    </row>
-    <row r="4263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4263"/>
-    </row>
-    <row r="4264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4264"/>
-    </row>
-    <row r="4265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4265"/>
-    </row>
-    <row r="4266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4266"/>
-    </row>
-    <row r="4267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4267"/>
-    </row>
-    <row r="4268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4268"/>
-    </row>
-    <row r="4269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4269"/>
-    </row>
-    <row r="4270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4270"/>
-    </row>
-    <row r="4271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4271"/>
-    </row>
-    <row r="4272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4272"/>
-    </row>
-    <row r="4273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4273"/>
-    </row>
-    <row r="4274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4274"/>
-    </row>
-    <row r="4275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4275"/>
-    </row>
-    <row r="4276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4276"/>
-    </row>
-    <row r="4277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4277"/>
-    </row>
-    <row r="4278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4278"/>
-    </row>
-    <row r="4279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4279"/>
-    </row>
-    <row r="4280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4280"/>
-    </row>
-    <row r="4281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4281"/>
-    </row>
-    <row r="4282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4282"/>
-    </row>
-    <row r="4283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4283"/>
-    </row>
-    <row r="4284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4284"/>
-    </row>
-    <row r="4285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4285"/>
-    </row>
-    <row r="4286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4286"/>
-    </row>
-    <row r="4287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4287"/>
-    </row>
-    <row r="4288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4288"/>
-    </row>
-    <row r="4289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4289"/>
-    </row>
-    <row r="4290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4290"/>
-    </row>
-    <row r="4291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4291"/>
-    </row>
-    <row r="4292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4292"/>
-    </row>
-    <row r="4293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4293"/>
-    </row>
-    <row r="4294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4294"/>
-    </row>
-    <row r="4295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4295"/>
-    </row>
-    <row r="4296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4296"/>
-    </row>
-    <row r="4297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4297"/>
-    </row>
-    <row r="4298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4298"/>
-    </row>
-    <row r="4299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4299"/>
-    </row>
-    <row r="4300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4300"/>
-    </row>
-    <row r="4301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4301"/>
-    </row>
-    <row r="4302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4302"/>
-    </row>
-    <row r="4303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4303"/>
-    </row>
-    <row r="4304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4304"/>
-    </row>
-    <row r="4305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4305"/>
-    </row>
-    <row r="4306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4306"/>
-    </row>
-    <row r="4307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4307"/>
-    </row>
-    <row r="4308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4308"/>
-    </row>
-    <row r="4309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4309"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4308">
-    <sortCondition ref="A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4309">
+    <sortCondition ref="A3003"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
